--- a/biology/Microbiologie/Fonticulida/Fonticulida.xlsx
+++ b/biology/Microbiologie/Fonticulida/Fonticulida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fonticulida est un ordre d'holomycètes du règne des Nucleariae. Ce sont des organismes amiboïdes à partir desquelles s'étendent les filopodes. 
-Cet ordre comprend les genres[2] :
+Cet ordre comprend les genres :
 Fonticula, une moisissure visqueuse qui se forme à partir d'amas cellulaires ou pseudoplasmodes, une caractéristique unique parmi les opisthoconthes ;
 Parvularia, une amibe parasitaire aux caractéristiques similaires aux Nucleariida et qui pourrait représenter le maillon intermédiaire dans l'évolution de Fonticula.
-Initialement, Fonticulida était monotypique, ne comprenant que l’espèce Fonticula alba, jusqu'à la découverte de Parvularia en 2017, qui se positionne en groupe frère de Fonticula[3].
-Fonticulida et Nucleariida constituent le clade des Nucleariae ou Cristidiscoidea, qui est le groupe frère groupe des champignons (Fungi au sens large)[4].
+Initialement, Fonticulida était monotypique, ne comprenant que l’espèce Fonticula alba, jusqu'à la découverte de Parvularia en 2017, qui se positionne en groupe frère de Fonticula.
+Fonticulida et Nucleariida constituent le clade des Nucleariae ou Cristidiscoidea, qui est le groupe frère groupe des champignons (Fungi au sens large).
 </t>
         </is>
       </c>
